--- a/Instances/01_01_OneResourcePerLevelC=1_NonStationary.xlsx
+++ b/Instances/01_01_OneResourcePerLevelC=1_NonStationary.xlsx
@@ -848,7 +848,7 @@
         <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>2.637375</v>
+        <v>3.089125</v>
       </c>
       <c r="F2" t="n">
         <v>0.26</v>
@@ -900,13 +900,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>790</v>
+        <v>855</v>
       </c>
       <c r="D4" t="n">
         <v>0.0048</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6996000000000001</v>
+        <v>0.783</v>
       </c>
       <c r="F4" t="n">
         <v>0.048</v>
@@ -929,13 +929,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>790</v>
+        <v>855</v>
       </c>
       <c r="D5" t="n">
         <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2915</v>
+        <v>0.32625</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
@@ -958,13 +958,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>790</v>
+        <v>855</v>
       </c>
       <c r="D6" t="n">
         <v>0.0036</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5247000000000001</v>
+        <v>0.58725</v>
       </c>
       <c r="F6" t="n">
         <v>0.036</v>
@@ -987,13 +987,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>476</v>
+        <v>585</v>
       </c>
       <c r="D7" t="n">
         <v>0.026</v>
       </c>
       <c r="E7" t="n">
-        <v>2.208375</v>
+        <v>2.656875</v>
       </c>
       <c r="F7" t="n">
         <v>0.26</v>
@@ -1016,13 +1016,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" t="n">
         <v>0.0508</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8382000000000001</v>
+        <v>0.8445500000000001</v>
       </c>
       <c r="F8" t="n">
         <v>0.508</v>
@@ -1045,13 +1045,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D9" t="n">
         <v>0.0248</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6897500000000001</v>
+        <v>0.6866500000000001</v>
       </c>
       <c r="F9" t="n">
         <v>0.248</v>
@@ -1131,13 +1131,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>207</v>
+        <v>266</v>
       </c>
       <c r="H2" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I2" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="H3" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I3" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="H4" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="H5" t="n">
         <v>44</v>
       </c>
       <c r="I5" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>163</v>
+        <v>320</v>
       </c>
       <c r="H6" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I6" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1276,13 +1276,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="H7" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.174999999999999</v>
+        <v>6.649999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1.125</v>
+        <v>1.075</v>
       </c>
       <c r="I2" t="n">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>12.5875</v>
+        <v>14.915</v>
       </c>
       <c r="H3" t="n">
-        <v>2.0425</v>
+        <v>2.089999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>3.657499999999999</v>
+        <v>3.419999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1408,13 +1408,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>14.70175</v>
+        <v>18.15699999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>3.048749999999999</v>
+        <v>3.116499999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>4.877999999999998</v>
+        <v>5.013499999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1437,13 +1437,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>19.860225</v>
+        <v>20.9779</v>
       </c>
       <c r="H5" t="n">
         <v>3.7829</v>
       </c>
       <c r="I5" t="n">
-        <v>6.620075</v>
+        <v>6.276174999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1466,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>16.6875325</v>
+        <v>32.7608</v>
       </c>
       <c r="H6" t="n">
-        <v>4.606987499999999</v>
+        <v>4.709364999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>7.371179999999999</v>
+        <v>7.678312499999999</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1495,13 +1495,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>32.330571</v>
+        <v>26.12216425</v>
       </c>
       <c r="H7" t="n">
-        <v>4.919869499999999</v>
+        <v>5.03700925</v>
       </c>
       <c r="I7" t="n">
-        <v>8.668341499999999</v>
+        <v>8.434061999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1260.5</v>
+        <v>582.6666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1943.333333333333</v>
+        <v>1621.833333333333</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4664</v>
+        <v>2175</v>
       </c>
     </row>
   </sheetData>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1657,7 +1657,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
